--- a/database/industries/dode/shedoos/product/yearly_seprated.xlsx
+++ b/database/industries/dode/shedoos/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F56DF9-FE80-4786-8968-5AE4C2215571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C152B8-BB60-426E-99CD-3465087D81B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -655,12 +655,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -670,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -790,23 +790,23 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="11">
         <v>22336543</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11">
         <v>24957703</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -817,12 +817,12 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="13">
         <v>27000425</v>
       </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="13" t="s">
         <v>13</v>
       </c>
@@ -830,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -847,36 +847,36 @@
       <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
+      <c r="H13" s="11">
+        <v>30866</v>
       </c>
       <c r="I13" s="11">
-        <v>30866</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>22336543</v>
       </c>
       <c r="F14" s="15">
-        <v>22336543</v>
+        <v>27000425</v>
       </c>
       <c r="G14" s="15">
-        <v>27000425</v>
+        <v>24957703</v>
       </c>
       <c r="H14" s="15">
-        <v>24957703</v>
+        <v>30866</v>
       </c>
       <c r="I14" s="15">
-        <v>30866</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27096</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
@@ -896,23 +896,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="E16" s="11">
         <v>516890</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11">
         <v>1827960</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
@@ -923,11 +923,11 @@
       <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>13</v>
@@ -936,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -953,36 +953,36 @@
       <c r="G18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>13</v>
+      <c r="H18" s="11">
+        <v>1974</v>
       </c>
       <c r="I18" s="11">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>516890</v>
       </c>
       <c r="F19" s="15">
-        <v>516890</v>
+        <v>0</v>
       </c>
       <c r="G19" s="15">
-        <v>0</v>
+        <v>1827960</v>
       </c>
       <c r="H19" s="15">
-        <v>1827960</v>
+        <v>1974</v>
       </c>
       <c r="I19" s="15">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1024,8 +1024,8 @@
         <v>24</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
+      <c r="E22" s="15">
+        <v>0</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -1033,21 +1033,21 @@
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
+      <c r="H22" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
+      <c r="E23" s="19">
+        <v>0</v>
       </c>
       <c r="F23" s="19">
         <v>0</v>
@@ -1055,36 +1055,36 @@
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>22853433</v>
       </c>
       <c r="F24" s="15">
-        <v>22853433</v>
+        <v>27000425</v>
       </c>
       <c r="G24" s="15">
-        <v>27000425</v>
+        <v>26785663</v>
       </c>
       <c r="H24" s="15">
-        <v>26785663</v>
+        <v>32840</v>
       </c>
       <c r="I24" s="15">
-        <v>32840</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29094</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1094,7 +1094,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1114,7 +1114,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1166,23 +1166,23 @@
         <v>29</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="11">
         <v>1693614</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11">
         <v>3137516</v>
       </c>
+      <c r="H31" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>14</v>
       </c>
@@ -1193,12 +1193,12 @@
       <c r="E32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="13">
         <v>2641417</v>
       </c>
+      <c r="G32" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1223,36 +1223,36 @@
       <c r="G33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>13</v>
+      <c r="H33" s="11">
+        <v>7841715</v>
       </c>
       <c r="I33" s="11">
-        <v>7841715</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10385677</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>0</v>
+        <v>1693614</v>
       </c>
       <c r="F34" s="15">
-        <v>1693614</v>
+        <v>2641417</v>
       </c>
       <c r="G34" s="15">
-        <v>2641417</v>
+        <v>3137516</v>
       </c>
       <c r="H34" s="15">
-        <v>3137516</v>
+        <v>7841715</v>
       </c>
       <c r="I34" s="15">
-        <v>7841715</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10385677</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>19</v>
       </c>
@@ -1272,23 +1272,23 @@
         <v>29</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E36" s="11">
         <v>24294</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="11">
         <v>271544</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>14</v>
       </c>
@@ -1299,11 +1299,11 @@
       <c r="E37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1329,36 +1329,36 @@
       <c r="G38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>13</v>
+      <c r="H38" s="11">
+        <v>468414</v>
       </c>
       <c r="I38" s="11">
-        <v>468414</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>645878</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>24294</v>
       </c>
       <c r="F39" s="15">
-        <v>24294</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>271544</v>
       </c>
       <c r="H39" s="15">
-        <v>271544</v>
+        <v>468414</v>
       </c>
       <c r="I39" s="15">
-        <v>468414</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>645878</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
@@ -1400,8 +1400,8 @@
         <v>29</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
@@ -1409,14 +1409,14 @@
       <c r="G42" s="15">
         <v>0</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
+      <c r="H42" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1424,8 @@
         <v>29</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>13</v>
+      <c r="E43" s="19">
+        <v>0</v>
       </c>
       <c r="F43" s="19">
         <v>0</v>
@@ -1433,36 +1433,36 @@
       <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>1717908</v>
       </c>
       <c r="F44" s="15">
-        <v>1717908</v>
+        <v>2641417</v>
       </c>
       <c r="G44" s="15">
-        <v>2641417</v>
+        <v>3409060</v>
       </c>
       <c r="H44" s="15">
-        <v>3409060</v>
+        <v>8310129</v>
       </c>
       <c r="I44" s="15">
-        <v>8310129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11031555</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1472,7 +1472,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1492,7 +1492,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>32</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1524,7 +1524,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>33</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1544,23 +1544,23 @@
         <v>34</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11">
+      <c r="E51" s="11">
         <v>75823</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="11">
+      <c r="F51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="11">
         <v>125713</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I51" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>14</v>
       </c>
@@ -1571,12 +1571,12 @@
       <c r="E52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="13">
         <v>97829</v>
       </c>
+      <c r="G52" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" s="13" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>15</v>
       </c>
@@ -1601,14 +1601,14 @@
       <c r="G53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>13</v>
+      <c r="H53" s="11">
+        <v>254056729</v>
       </c>
       <c r="I53" s="11">
-        <v>254056729</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>383291888</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
@@ -1628,23 +1628,23 @@
         <v>34</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="E55" s="11">
         <v>47000</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11">
+      <c r="F55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="11">
         <v>148550</v>
       </c>
+      <c r="H55" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I55" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
@@ -1655,11 +1655,11 @@
       <c r="E56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0</v>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>13</v>
@@ -1668,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1685,14 +1685,14 @@
       <c r="G57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
+      <c r="H57" s="11">
+        <v>237291793</v>
       </c>
       <c r="I57" s="11">
-        <v>237291793</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>323262262</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1774,23 +1774,23 @@
         <v>29</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="11">
+      <c r="E64" s="11">
         <v>-1370356</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11">
+      <c r="F64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="11">
         <v>-2286588</v>
       </c>
+      <c r="H64" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I64" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>14</v>
       </c>
@@ -1801,12 +1801,12 @@
       <c r="E65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="13">
         <v>-2110736</v>
       </c>
+      <c r="G65" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="13" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1831,36 +1831,36 @@
       <c r="G66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>13</v>
+      <c r="H66" s="11">
+        <v>-6224560</v>
       </c>
       <c r="I66" s="11">
-        <v>-6224560</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8167015</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>0</v>
+        <v>-1370356</v>
       </c>
       <c r="F67" s="15">
-        <v>-1370356</v>
+        <v>-2110736</v>
       </c>
       <c r="G67" s="15">
-        <v>-2110736</v>
+        <v>-2286588</v>
       </c>
       <c r="H67" s="15">
-        <v>-2286588</v>
+        <v>-6224560</v>
       </c>
       <c r="I67" s="15">
-        <v>-6224560</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8167015</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -1880,23 +1880,23 @@
         <v>29</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11">
-        <v>0</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11">
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="11">
         <v>-197898</v>
       </c>
+      <c r="H69" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I69" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
@@ -1907,11 +1907,11 @@
       <c r="E70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0</v>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>13</v>
@@ -1920,7 +1920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>15</v>
       </c>
@@ -1937,14 +1937,14 @@
       <c r="G71" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
+      <c r="H71" s="11">
+        <v>-352111</v>
       </c>
       <c r="I71" s="11">
-        <v>-352111</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-614721</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>41</v>
       </c>
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="G72" s="15">
-        <v>0</v>
+        <v>-197898</v>
       </c>
       <c r="H72" s="15">
-        <v>-197898</v>
+        <v>-352111</v>
       </c>
       <c r="I72" s="15">
-        <v>-352111</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-614721</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>43</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>23</v>
       </c>
@@ -2008,8 +2008,8 @@
         <v>29</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
       </c>
       <c r="F75" s="15">
         <v>0</v>
@@ -2017,14 +2017,14 @@
       <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
+      <c r="H75" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2032,8 @@
         <v>29</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>13</v>
+      <c r="E76" s="19">
+        <v>0</v>
       </c>
       <c r="F76" s="19">
         <v>0</v>
@@ -2041,36 +2041,36 @@
       <c r="G76" s="19">
         <v>0</v>
       </c>
-      <c r="H76" s="19">
-        <v>0</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>0</v>
+        <v>-1370356</v>
       </c>
       <c r="F77" s="15">
-        <v>-1370356</v>
+        <v>-2110736</v>
       </c>
       <c r="G77" s="15">
-        <v>-2110736</v>
+        <v>-2484486</v>
       </c>
       <c r="H77" s="15">
-        <v>-2484486</v>
+        <v>-6576671</v>
       </c>
       <c r="I77" s="15">
-        <v>-6576671</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8781736</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2080,7 +2080,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2090,7 +2090,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>45</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2152,23 +2152,23 @@
         <v>29</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="11">
+      <c r="E84" s="11">
         <v>323258</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="F84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="11">
         <v>850928</v>
       </c>
+      <c r="H84" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I84" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>14</v>
       </c>
@@ -2179,12 +2179,12 @@
       <c r="E85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="13">
+      <c r="F85" s="13">
         <v>530681</v>
       </c>
+      <c r="G85" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" s="13" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>15</v>
       </c>
@@ -2209,36 +2209,36 @@
       <c r="G86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>13</v>
+      <c r="H86" s="11">
+        <v>1617155</v>
       </c>
       <c r="I86" s="11">
-        <v>1617155</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2218662</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>323258</v>
       </c>
       <c r="F87" s="15">
-        <v>323258</v>
+        <v>530681</v>
       </c>
       <c r="G87" s="15">
-        <v>530681</v>
+        <v>850928</v>
       </c>
       <c r="H87" s="15">
-        <v>850928</v>
+        <v>1617155</v>
       </c>
       <c r="I87" s="15">
-        <v>1617155</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2218662</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>47</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>19</v>
       </c>
@@ -2258,23 +2258,23 @@
         <v>29</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11">
+      <c r="E89" s="11">
         <v>24294</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11">
+      <c r="F89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="11">
         <v>73646</v>
       </c>
+      <c r="H89" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I89" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>14</v>
       </c>
@@ -2285,11 +2285,11 @@
       <c r="E90" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="13">
-        <v>0</v>
+      <c r="F90" s="13">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>13</v>
@@ -2298,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>15</v>
       </c>
@@ -2315,36 +2315,36 @@
       <c r="G91" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>13</v>
+      <c r="H91" s="11">
+        <v>116303</v>
       </c>
       <c r="I91" s="11">
-        <v>116303</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31157</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>24294</v>
       </c>
       <c r="F92" s="15">
-        <v>24294</v>
+        <v>0</v>
       </c>
       <c r="G92" s="15">
-        <v>0</v>
+        <v>73646</v>
       </c>
       <c r="H92" s="15">
-        <v>73646</v>
+        <v>116303</v>
       </c>
       <c r="I92" s="15">
-        <v>116303</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31157</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>49</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>50</v>
       </c>
@@ -2378,26 +2378,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>347552</v>
       </c>
       <c r="F95" s="15">
-        <v>347552</v>
+        <v>530681</v>
       </c>
       <c r="G95" s="15">
-        <v>530681</v>
+        <v>924574</v>
       </c>
       <c r="H95" s="15">
-        <v>924574</v>
+        <v>1733458</v>
       </c>
       <c r="I95" s="15">
-        <v>1733458</v>
+        <v>2249819</v>
       </c>
     </row>
   </sheetData>
